--- a/templates/order/score.xlsx
+++ b/templates/order/score.xlsx
@@ -880,7 +880,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>7</v>
       </c>

--- a/templates/order/score.xlsx
+++ b/templates/order/score.xlsx
@@ -91,39 +91,39 @@
     <t>30101810400000000225</t>
   </si>
   <si>
+    <t>ИП Рублёв Александр Александрович ИНН 773013683314</t>
+  </si>
+  <si>
+    <t>773013683314</t>
+  </si>
+  <si>
+    <t>В том числе НДС</t>
+  </si>
+  <si>
+    <t>Без НДС</t>
+  </si>
+  <si>
+    <t>Всего к оплате</t>
+  </si>
+  <si>
+    <t>Счет на оплату № 1 от 04.12.2017</t>
+  </si>
+  <si>
+    <t>Всего наименований 26  , на сумму 407 600,00 руб.</t>
+  </si>
+  <si>
+    <t>40802810938000063715</t>
+  </si>
+  <si>
+    <t>044525225</t>
+  </si>
+  <si>
     <t xml:space="preserve">ИП Рублёв Александр Александрович
-Кутузовский проезд д.16 стр.15
+121601 г.Москва Филевский бульвар д.40 кв.334
 ОГРНИП 317774600502549
 ИНН 773013683314
 +7(916)396-16-68
 </t>
-  </si>
-  <si>
-    <t>ИП Рублёв Александр Александрович ИНН 773013683314</t>
-  </si>
-  <si>
-    <t>773013683314</t>
-  </si>
-  <si>
-    <t>В том числе НДС</t>
-  </si>
-  <si>
-    <t>Без НДС</t>
-  </si>
-  <si>
-    <t>Всего к оплате</t>
-  </si>
-  <si>
-    <t>Счет на оплату № 1 от 04.12.2017</t>
-  </si>
-  <si>
-    <t>Всего наименований 26  , на сумму 407 600,00 руб.</t>
-  </si>
-  <si>
-    <t>40802810938000063715</t>
-  </si>
-  <si>
-    <t>044525225</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="57" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -920,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
@@ -946,13 +946,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
@@ -990,7 +990,7 @@
     </row>
     <row r="9" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
@@ -1267,16 +1267,16 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="13"/>
       <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="13"/>
       <c r="E3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="56">
         <v>407600</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>

--- a/templates/order/score.xlsx
+++ b/templates/order/score.xlsx
@@ -122,7 +122,7 @@
 121601 г.Москва Филевский бульвар д.40 кв.334
 ОГРНИП 317774600502549
 ИНН 773013683314
-+7(916)396-16-68
++7(929)902-45-74
 </t>
   </si>
 </sst>
@@ -880,7 +880,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
